--- a/medicine/Maladies infectieuses/Klebsiella_granulomatis/Klebsiella_granulomatis.xlsx
+++ b/medicine/Maladies infectieuses/Klebsiella_granulomatis/Klebsiella_granulomatis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Klebsiella granulomatis est une bactérie Gram-négative, décrite en 1913, en forme de bâtonnet. 
-Appartenant au genre Klebsiella [1], elle est connue pour causer une maladie sexuellement transmissible (MST) dénommée granulome inguinal ou donovanose.  
+Appartenant au genre Klebsiella , elle est connue pour causer une maladie sexuellement transmissible (MST) dénommée granulome inguinal ou donovanose.  
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bactérie de la famille des entérobactéries était autrefois nommée Calymmatobacterium granulomatis[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bactérie de la famille des entérobactéries était autrefois nommée Calymmatobacterium granulomatis
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un bacille aérobie stationnaire à capsule non sporulée mesurant 0,5 à 2,0 m[3],[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bacille aérobie stationnaire à capsule non sporulée mesurant 0,5 à 2,0 m,. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Propriétés biochimiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette bactérie est caractérisée par une  catalase positive, une phénylalanine négative etun  citrate positif et elle s'hydrolyse dans l'urée[5] . 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette bactérie est caractérisée par une  catalase positive, une phénylalanine négative etun  citrate positif et elle s'hydrolyse dans l'urée . 
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Facteurs de virulence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été estimé que la capsule de cette bactérie, ses endotoxines, ses sidérophores expliquent sa résistance au système immunitaire, surtout s'il est affaibli (en cas de SIDA par exemple) , sa résistance à certains antibiotiques et sa variation de phase antigénique[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été estimé que la capsule de cette bactérie, ses endotoxines, ses sidérophores expliquent sa résistance au système immunitaire, surtout s'il est affaibli (en cas de SIDA par exemple) , sa résistance à certains antibiotiques et sa variation de phase antigénique.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Incubation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est d'environ 50 jours en moyenne, mais peut varier de 1 à 12 semaines[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est d'environ 50 jours en moyenne, mais peut varier de 1 à 12 semaines.
 </t>
         </is>
       </c>
@@ -668,11 +690,13 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle cause une forme rare d'ulcération génitale (granulome inguinal ou donovanose), maladie sexuellement transmissible, évitable qui pourrait techniquement être éradiquée dans le monde entier. 
-On constate cependant  des taux alarmants de cette maladie dans certaines régions du monde (Inde, la Papouasie-Nouvelle-Guinée, les Caraïbes, l'Amérique du Sud, la Zambie, le Zimbabwe, l'Afrique du Sud et l'Australie)[8].
-Grâce à la reconnaissance de ce problème comme enjeu de santé publique et épidémiologique, et à la suite de mesures de contrôle appropriées de la maladie, telles que la mise en œuvre de meilleures prestations de services de santé, l'incidence de ce micro-organisme dans des pays tels que la Papouasie-Nouvelle-Guinée, l'Afrique du Sud, l'Inde et les Caraïbes a considérablement diminué[8].
+On constate cependant  des taux alarmants de cette maladie dans certaines régions du monde (Inde, la Papouasie-Nouvelle-Guinée, les Caraïbes, l'Amérique du Sud, la Zambie, le Zimbabwe, l'Afrique du Sud et l'Australie).
+Grâce à la reconnaissance de ce problème comme enjeu de santé publique et épidémiologique, et à la suite de mesures de contrôle appropriées de la maladie, telles que la mise en œuvre de meilleures prestations de services de santé, l'incidence de ce micro-organisme dans des pays tels que la Papouasie-Nouvelle-Guinée, l'Afrique du Sud, l'Inde et les Caraïbes a considérablement diminué.
 </t>
         </is>
       </c>
